--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-think/CoT_llama_wikidata_dbpedia_results_comparison_think.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-think/CoT_llama_wikidata_dbpedia_results_comparison_think.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>List all the musicals with music by Elton John.</t>
+          <t>Who developed Skype?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aida_(musical)', 'http://dbpedia.org/resource/Billy_Elliot_the_Musical', 'http://dbpedia.org/resource/Lestat_(musical)', 'http://dbpedia.org/resource/Tammy_Faye_(musical)', 'http://dbpedia.org/resource/The_Devil_Wears_Prada_(musical)', 'http://dbpedia.org/resource/The_Lion_King_(musical)']</t>
+          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aida_(musical)', 'http://dbpedia.org/resource/Billy_Elliot_the_Musical', 'http://dbpedia.org/resource/Lestat_(musical)', 'http://dbpedia.org/resource/Tammy_Faye_(musical)', 'http://dbpedia.org/resource/The_Devil_Wears_Prada_(musical)', 'http://dbpedia.org/resource/The_Lion_King_(musical)']</t>
+          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Who developed Skype?</t>
+          <t>What is the highest mountain?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
+          <t>['http://dbpedia.org/resource/Alpide_belt']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
+          <t>['http://dbpedia.org/resource/Alpide_belt']</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Show a list of soccer clubs that play in the Bundesliga.</t>
+          <t>How many films did Leonardo DiCaprio star in?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Who developed Minecraft?</t>
+          <t>Give me the runtime of Toy Story.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['4860']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['4860']</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -618,17 +618,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>How much did the Lego Movie cost?</t>
+          <t>How high is the Yokohama Marine Tower?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="D10" t="b">
@@ -638,17 +638,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Give me the runtime of Toy Story.</t>
+          <t>What is the highest mountain in Italy?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['4860']</t>
+          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['4860']</t>
+          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Give me a list of all trumpet players that were bandleaders.</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,37 +678,37 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>In which films directed by Garry Marshall was Julia Roberts starring?</t>
+          <t>What is Donald Trump's main business?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
+          <t>['http://dbpedia.org/resource/GoTrump.com', 'http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
+          <t>['http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
         </is>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>In which year was Rachel Stevens born?</t>
+          <t>How many people live in Eurasia?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>What is the highest mountain in Italy?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,37 +758,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>What is Donald Trump's main business?</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/GoTrump.com', 'http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>How many people live in Eurasia?</t>
+          <t>When was the death of Shakespeare?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['5360351985']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['5360351985']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Who is the author of the interpretation of dreams?</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>how much is the total population of european union?</t>
+          <t>Give me all movies with Tom Cruise.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,17 +838,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>What country is Mount Everest in?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
         </is>
       </c>
       <c r="D21" t="b">
@@ -858,17 +858,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Who developed the video game World of Warcraft?</t>
+          <t>Which river does the Brooklyn Bridge cross?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
+          <t>['http://dbpedia.org/resource/East_River']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
+          <t>['http://dbpedia.org/resource/East_River']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Where was JFK assassinated?</t>
+          <t>Which people were born in Heraklion?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Dallas']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Dallas']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Which river does the Brooklyn Bridge cross?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/East_River']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/East_River']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Give all swimmers that were born in Moscow.</t>
+          <t>Who wrote the book The Pillars of the Earth?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aleksandr_Pletnev', 'http://dbpedia.org/resource/Aleksandr_Samsonov', 'http://dbpedia.org/resource/Aleksey_Matveyev', 'http://dbpedia.org/resource/Alexandra_Patskevich', 'http://dbpedia.org/resource/Alexey_Zinovyev', 'http://dbpedia.org/resource/Alla_Shishkina', 'http://dbpedia.org/resource/Anastasia_Chaun', 'http://dbpedia.org/resource/Anastasia_Davydova', 'http://dbpedia.org/resource/Anastasia_Gloushkov', 'http://dbpedia.org/resource/Anastasiya_Yermakova', 'http://dbpedia.org/resource/Andrey_Dunayev', 'http://dbpedia.org/resource/Anisya_Olkhova', 'http://dbpedia.org/resource/Anton_Chupkov', 'http://dbpedia.org/resource/Artem_Lobuzov', 'http://dbpedia.org/resource/Daniela_Inácio', 'http://dbpedia.org/resource/Daniil_Pasynkov', 'http://dbpedia.org/resource/Danil_Haustov', 'http://dbpedia.org/resource/Daria_Vaskina', 'http://dbpedia.org/resource/Elena_Prokofyeva', 'http://dbpedia.org/resource/Elena_Sokolova_(swimmer)', 'http://dbpedia.org/resource/Elvira_Khasyanova', 'http://dbpedia.org/resource/Galina_Sosnova', 'http://dbpedia.org/resource/Gelena_Topilina', 'http://dbpedia.org/resource/Irina_Pozdnyakova', 'http://dbpedia.org/resource/Kliment_Kolesnikov', 'http://dbpedia.org/resource/Lyubov_Kobzova', 'http://dbpedia.org/resource/Maria_Gromova_(swimmer)', 'http://dbpedia.org/resource/Maria_Shurochkina', 'http://dbpedia.org/resource/Maria_Ugolkova', 'http://dbpedia.org/resource/Marina_Chepurkova', 'http://dbpedia.org/resource/Marina_Klyuchnikova', 'http://dbpedia.org/resource/Mariya_Chernyayeva', 'http://dbpedia.org/resource/Mariya_Gromova', 'http://dbpedia.org/resource/Mikhail_Dovgalyuk', 'http://dbpedia.org/resource/Mikhail_Polischuk', 'http://dbpedia.org/resource/Natalya_Mikhaylova', 'http://dbpedia.org/resource/Nika_Godun', 'http://dbpedia.org/resource/Nikolai_Pankin', 'http://dbpedia.org/resource/Nikolay_Suhorukov', 'http://dbpedia.org/resource/Oleg_Fotin', 'http://dbpedia.org/resource/Olesya_Vladykina', 'http://dbpedia.org/resource/Olga_Sedakova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Rozaliya_Nasretdinova', 'http://dbpedia.org/resource/Ruslan_Gaziev', 'http://dbpedia.org/resource/Semyon_Belits-Geiman', 'http://dbpedia.org/resource/Sergey_Gusev_(swimmer)', 'http://dbpedia.org/resource/Sergey_Lavrenov', 'http://dbpedia.org/resource/Svetlana_Chimrova', 'http://dbpedia.org/resource/Svetlana_Romashina', 'http://dbpedia.org/resource/Tamara_Sosnova', 'http://dbpedia.org/resource/Tatyana_Titova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Valentin_Kuzmin', 'http://dbpedia.org/resource/Valentina_Poznyak', 'http://dbpedia.org/resource/Valentina_Tutayeva', 'http://dbpedia.org/resource/Viktor_Drobinsky', 'http://dbpedia.org/resource/Viktor_Mazanov', 'http://dbpedia.org/resource/Vladimir_Kravchenko', 'http://dbpedia.org/resource/Vladimir_Mikheyev', 'http://dbpedia.org/resource/Vladislav_Grinev', 'http://dbpedia.org/resource/Yekaterina_Vinogradova', 'http://dbpedia.org/resource/Yelena_Makarova', 'http://dbpedia.org/resource/Yevgeny_Korotyshkin', 'http://dbpedia.org/resource/Yevhen_Mykhailov']</t>
+          <t>['http://dbpedia.org/resource/Ken_Follett']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aleksandr_Pletnev', 'http://dbpedia.org/resource/Aleksandr_Samsonov', 'http://dbpedia.org/resource/Aleksey_Matveyev', 'http://dbpedia.org/resource/Alexandra_Patskevich', 'http://dbpedia.org/resource/Alexey_Zinovyev', 'http://dbpedia.org/resource/Alla_Shishkina', 'http://dbpedia.org/resource/Anastasia_Chaun', 'http://dbpedia.org/resource/Anastasia_Davydova', 'http://dbpedia.org/resource/Anastasia_Gloushkov', 'http://dbpedia.org/resource/Anastasiya_Yermakova', 'http://dbpedia.org/resource/Andrey_Dunayev', 'http://dbpedia.org/resource/Anisya_Olkhova', 'http://dbpedia.org/resource/Anton_Chupkov', 'http://dbpedia.org/resource/Artem_Lobuzov', 'http://dbpedia.org/resource/Daniela_Inácio', 'http://dbpedia.org/resource/Daniil_Pasynkov', 'http://dbpedia.org/resource/Danil_Haustov', 'http://dbpedia.org/resource/Daria_Vaskina', 'http://dbpedia.org/resource/Elena_Prokofyeva', 'http://dbpedia.org/resource/Elena_Sokolova_(swimmer)', 'http://dbpedia.org/resource/Elvira_Khasyanova', 'http://dbpedia.org/resource/Galina_Sosnova', 'http://dbpedia.org/resource/Gelena_Topilina', 'http://dbpedia.org/resource/Irina_Pozdnyakova', 'http://dbpedia.org/resource/Kliment_Kolesnikov', 'http://dbpedia.org/resource/Lyubov_Kobzova', 'http://dbpedia.org/resource/Maria_Gromova_(swimmer)', 'http://dbpedia.org/resource/Maria_Shurochkina', 'http://dbpedia.org/resource/Maria_Ugolkova', 'http://dbpedia.org/resource/Marina_Chepurkova', 'http://dbpedia.org/resource/Marina_Klyuchnikova', 'http://dbpedia.org/resource/Mariya_Chernyayeva', 'http://dbpedia.org/resource/Mariya_Gromova', 'http://dbpedia.org/resource/Mikhail_Dovgalyuk', 'http://dbpedia.org/resource/Mikhail_Polischuk', 'http://dbpedia.org/resource/Natalya_Mikhaylova', 'http://dbpedia.org/resource/Nika_Godun', 'http://dbpedia.org/resource/Nikolai_Pankin', 'http://dbpedia.org/resource/Nikolay_Suhorukov', 'http://dbpedia.org/resource/Oleg_Fotin', 'http://dbpedia.org/resource/Olesya_Vladykina', 'http://dbpedia.org/resource/Olga_Sedakova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Rozaliya_Nasretdinova', 'http://dbpedia.org/resource/Ruslan_Gaziev', 'http://dbpedia.org/resource/Semyon_Belits-Geiman', 'http://dbpedia.org/resource/Sergey_Gusev_(swimmer)', 'http://dbpedia.org/resource/Sergey_Lavrenov', 'http://dbpedia.org/resource/Svetlana_Chimrova', 'http://dbpedia.org/resource/Svetlana_Romashina', 'http://dbpedia.org/resource/Tamara_Sosnova', 'http://dbpedia.org/resource/Tatyana_Titova_(synchronised_swimmer)', 'http://dbpedia.org/resource/Valentin_Kuzmin', 'http://dbpedia.org/resource/Valentina_Poznyak', 'http://dbpedia.org/resource/Valentina_Tutayeva', 'http://dbpedia.org/resource/Viktor_Drobinsky', 'http://dbpedia.org/resource/Viktor_Mazanov', 'http://dbpedia.org/resource/Vladimir_Kravchenko', 'http://dbpedia.org/resource/Vladimir_Mikheyev', 'http://dbpedia.org/resource/Vladislav_Grinev', 'http://dbpedia.org/resource/Yekaterina_Vinogradova', 'http://dbpedia.org/resource/Yelena_Makarova', 'http://dbpedia.org/resource/Yevgeny_Korotyshkin', 'http://dbpedia.org/resource/Yevhen_Mykhailov']</t>
+          <t>['http://dbpedia.org/resource/Ken_Follett']</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>What is the population of Cairo?</t>
+          <t>What kind of music did Lou Reed play?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="D27" t="b">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -998,57 +998,57 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>how much is the elevation of Düsseldorf Airport ?</t>
+          <t>Which city has the least inhabitants?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['44.8']</t>
+          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['44.8', '44.8056']</t>
+          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
         </is>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Which holidays are celebrated around the world?</t>
+          <t>Which television shows were created by Walt Disney?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
+          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/ontology/Holiday']</t>
+          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
         </is>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>What kind of music did Lou Reed play?</t>
+          <t>Where did Abraham Lincoln die?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Give me the birth place of Frank Sinatra.</t>
+          <t>In which country is the Limerick Lake?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -1078,17 +1078,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>Which films starring Clint Eastwood did he direct himself?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>In which countries can you pay using the West African CFA franc?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,17 +1118,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Which films starring Clint Eastwood did he direct himself?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="D35" t="b">
@@ -1138,17 +1138,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>Give me the birthdays of all actors of the television show Charmed.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Give me the birthdays of all actors of the television show Charmed.</t>
+          <t>Who designed the Brooklyn Bridge?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
         </is>
       </c>
       <c r="D37" t="b">
@@ -1178,17 +1178,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Which actors were born in Germany?</t>
+          <t>Who wrote the Game of Thrones theme?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Brigitte_Mira', 'http://dbpedia.org/resource/David_Epley_(entertainer)', 'http://dbpedia.org/resource/Friederike_Caroline_Neuber', 'http://dbpedia.org/resource/Gordon_Hopkirk', 'http://dbpedia.org/resource/Shimon_Schwarzschild', 'http://dbpedia.org/resource/Walter_Bluhm', 'http://dbpedia.org/resource/Walther_Süssenguth']</t>
+          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Brigitte_Mira', 'http://dbpedia.org/resource/David_Epley_(entertainer)', 'http://dbpedia.org/resource/Friederike_Caroline_Neuber', 'http://dbpedia.org/resource/Gordon_Hopkirk', 'http://dbpedia.org/resource/Shimon_Schwarzschild', 'http://dbpedia.org/resource/Walter_Bluhm', 'http://dbpedia.org/resource/Walther_Süssenguth']</t>
+          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
         </is>
       </c>
       <c r="D38" t="b">
@@ -1198,17 +1198,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>Which television shows were created by John Cleese?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['http://dbpedia.org/resource/Fawlty_Towers', "http://dbpedia.org/resource/Monty_Python's_Fliegender_Zirkus", "http://dbpedia.org/resource/Monty_Python's_Flying_Circus", "http://dbpedia.org/resource/Monty_Python's_Personal_Best", 'http://dbpedia.org/resource/Parrot_Sketch_Not_Included_–_20_Years_of_Monty_Python', 'http://dbpedia.org/resource/Python_Night_–_30_Years_of_Monty_Python']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['http://dbpedia.org/resource/Fawlty_Towers', "http://dbpedia.org/resource/Monty_Python's_Fliegender_Zirkus", "http://dbpedia.org/resource/Monty_Python's_Flying_Circus", "http://dbpedia.org/resource/Monty_Python's_Personal_Best", 'http://dbpedia.org/resource/Parrot_Sketch_Not_Included_–_20_Years_of_Monty_Python', 'http://dbpedia.org/resource/Python_Night_–_30_Years_of_Monty_Python']</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Who wrote the Game of Thrones theme?</t>
+          <t>Who discovered Ceres?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -1238,17 +1238,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Give me all movies directed by Francis Ford Coppola.</t>
+          <t>Give me a list of all bandleaders that play trumpet.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="D41" t="b">
@@ -1258,17 +1258,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>What is the capital of Canada?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="D42" t="b">
@@ -1278,17 +1278,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="D43" t="b">
@@ -1298,17 +1298,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Give me all people that were born in Vienna and died in Berlin.</t>
+          <t>How many programming languages are there?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Adolf_Klein', 'http://dbpedia.org/resource/Eduard_von_Winterstein', 'http://dbpedia.org/resource/Eleonore_de_Ahna', 'http://dbpedia.org/resource/Emil_Justitz', 'http://dbpedia.org/resource/Erik_Jan_Hanussen', 'http://dbpedia.org/resource/Eva_Schmidt-Kolmer', 'http://dbpedia.org/resource/Gerda_Laski', 'http://dbpedia.org/resource/Guido_von_List', 'http://dbpedia.org/resource/Hans_Fidesser', 'http://dbpedia.org/resource/Heinrich_Belohlavek', 'http://dbpedia.org/resource/Hugo_Flink', 'http://dbpedia.org/resource/Josephine_Pagay', 'http://dbpedia.org/resource/Karl_Etlinger', 'http://dbpedia.org/resource/Karl_Hellmer', 'http://dbpedia.org/resource/La_Jana_(actress)', 'http://dbpedia.org/resource/Luise_Begas-Parmentier', 'http://dbpedia.org/resource/Mathilde_Danegger', 'http://dbpedia.org/resource/Michael_von_Newlinsky', 'http://dbpedia.org/resource/Richard_Thurnwald', 'http://dbpedia.org/resource/Robert_Bodanzky', 'http://dbpedia.org/resource/Steffie_Spira', 'http://dbpedia.org/resource/Therese_Grünbaum', 'http://dbpedia.org/resource/Tom_Seidmann-Freud']</t>
+          <t>['1325']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ada_Christen', 'http://dbpedia.org/resource/Adam_Baworowski', 'http://dbpedia.org/resource/Adele_Schreiber-Krieger', 'http://dbpedia.org/resource/Adolf_Bachura', 'http://dbpedia.org/resource/Adolf_Christian', 'http://dbpedia.org/resource/Adolf_Gruber', 'http://dbpedia.org/resource/Adolf_Huber', 'http://dbpedia.org/resource/Adolf_Klein', 'http://dbpedia.org/resource/Adolf_Lieben', 'http://dbpedia.org/resource/Adolf_Löblich', 'http://dbpedia.org/resource/Adolf_Michel', 'http://dbpedia.org/resource/Adolf_Patek', 'http://dbpedia.org/resource/Adolf_Pokorny', 'http://dbpedia.org/resource/Adolf_Riebe', 'http://dbpedia.org/resource/Adolf_Scherbaum_(composer)', 'http://dbpedia.org/resource/Adolf_Vogl', 'http://dbpedia.org/resource/Adrian_Grbić', 'http://dbpedia.org/resource/Ady_Berber', 'http://dbpedia.org/resource/Ahmed_Ildiz', 'http://dbpedia.org/resource/Aikaterini_Laskaridou', 'http://dbpedia.org/resource/Ala_Story', 'http://dbpedia.org/resource/Alajos_Károlyi', 'http://dbpedia.org/resource/Albert_Apponyi', 'http://dbpedia.org/resource/Albert_Dolleschall', 'http://dbpedia.org/resource/Albert_Janesch', 'http://dbpedia.org/resource/Albert_Salomon_Anselm_von_Rothschild', 'http://dbpedia.org/resource/Albert_von_Ettingshausen', 'http://dbpedia.org/resource/Albertina_Rasch', 'http://dbpedia.org/resource/Albin_Skoda', 'http://dbpedia.org/resource/Albrecht_Schrauf', 'http://dbpedia.org/resource/Aleksa_Marković_(Austrian_footballer)', 'http://dbpedia.org/resource/Aleksandar_Borković', 'http://dbpedia.org/resource/Aleksandar_Dragović', 'http://dbpedia.org/resource/Aleksandar_Jukic', 'http://dbpedia.org/resource/Aleksandar_Kostić', 'http://dbpedia.org/resource/Aleksandar_Rakić', 'http://dbpedia.org/resource/Alen_Oroz', 'http://dbpedia.org/resource/Alex_Hafner', 'http://dbpedia.org/resource/Alex_Sobczyk', 'http://dbpedia.org/resource/Alexander_Bandl', 'http://dbpedia.org/resource/Alexander_Geringer', 'http://dbpedia.org/resource/Alexander_Gorgon', 'http://dbpedia.org/resource/Alexander_Horst', 'http://dbpedia.org/resource/Alexander_Kardin', 'http://dbpedia.org/resource/Alexander_Lernet-Holenia', 'http://dbpedia.org/resource/Alexander_Peya', 'http://dbpedia.org/resource/Alexander_Popovic', 'http://dbpedia.org/resource/Alexander_Pschill', 'http://dbpedia.org/resource/Alexander_Schmidt_(footballer)', 'http://dbpedia.org/resource/Alexander_Trojan', 'http://dbpedia.org/resource/Alexander_Tschugguel', 'http://dbpedia.org/resource/Alexander_Van_der_Bellen', 'http://dbpedia.org/resource/Alexander_von_Zemlinsky', 'http://dbpedia.org/resource/Alexander_Wienerberger', 'http://dbpedia.org/resource/Alexander_Wrabetz', 'http://dbpedia.org/resource/Alexandra_Slanec', 'http://dbpedia.org/resource/Alf_Brustellin', 'http://dbpedia.org/resource/Alfons_Fryland', 'http://dbpedia.org/resource/Alfons_Riedel', 'http://dbpedia.org/resource/Alfred_Adler', 'http://dbpedia.org/resource/Alfred_Deutsch-German', 'http://dbpedia.org/resource/Alfred_Dorfer', 'http://dbpedia.org/resource/Alfréd_Fehérvári', 'http://dbpedia.org/resource/Alfred_Frauenfeld', 'http://dbpedia.org/resource/Alfred_Gager', 'http://dbpedia.org/resource/Alfred_Gerstenbrand', 'http://dbpedia.org/resource/Alfred_Halm', 'http://dbpedia.org/resource/Alfred_Heinrich_(rower)', 'http://dbpedia.org/resource/Alfred_Hermann_Fried', 'http://dbpedia.org/resource/Alfred_Huber_(tennis)', 'http://dbpedia.org/resource/Alfred_Kain', 'http://dbpedia.org/resource/Alfred_Klahr', 'http://dbpedia.org/resource/Alfred_Mohr', 'http://dbpedia.org/resource/Alfred_Neumann_(architect)', 'http://dbpedia.org/resource/Alfred_Pal', 'http://dbpedia.org/resource/Alfred_Planyavsky', 'http://dbpedia.org/resource/Alfred_Polgar', 'http://dbpedia.org/resource/Alfred_Preis', 'http://dbpedia.org/resource/Alfred_Proksch', 'http://dbpedia.org/resource/Alfred_Riedl', 'http://dbpedia.org/resource/Alfred_Roscher', 'http://dbpedia.org/resource/Alfred_Rosé', 'http://dbpedia.org/resource/Alfred_Teinitzer', 'http://dbpedia.org/resource/Alfred_Uhl', 'http://dbpedia.org/resource/Alice_Berger_Hammerschlag', 'http://dbpedia.org/resource/Alice_Galimberti', 'http://dbpedia.org/resource/Alice_Mavrogordato', 'http://dbpedia.org/resource/Alois_Mitschek', 'http://dbpedia.org/resource/Alois_Oroz', 'http://dbpedia.org/resource/Alois_Tremmel', 'http://dbpedia.org/resource/Alois_Wacha', 'http://dbpedia.org/resource/Amon_Göth', 'http://dbpedia.org/resource/Anastasios_Christomanos', 'http://dbpedia.org/resource/Anatol_Richter', 'http://dbpedia.org/resource/Andi_Herzog', 'http://dbpedia.org/resource/Andre_Gingrich', 'http://dbpedia.org/resource/André_Gorz', 'http://dbpedia.org/resource/Andre_Lakos', 'http://dbpedia.org/resource/Andrea_Eckert', 'http://dbpedia.org/resource/Andrea_Kozma', 'http://dbpedia.org/resource/Andrea_Porsch', 'http://dbpedia.org/resource/Andreas_Dober', 'http://dbpedia.org/resource/Andreas_Heraf', 'http://dbpedia.org/resource/Andreas_Karlsböck', 'http://dbpedia.org/resource/Andreas_Lipa', 'http://dbpedia.org/resource/Andreas_Lukse', 'http://dbpedia.org/resource/Andreas_Nödl', 'http://dbpedia.org/resource/Andreas_Ogris', 'http://dbpedia.org/resource/Andreas_Prochaska', 'http://dbpedia.org/resource/Andreas_Reisinger', 'http://dbpedia.org/resource/Andreas_Salat', 'http://dbpedia.org/resource/Andreas_Schieder', 'http://dbpedia.org/resource/Andreas_Suborics', 'http://dbpedia.org/resource/Andreas_Vevera', 'http://dbpedia.org/resource/Andreas_Vojta', 'http://dbpedia.org/resource/Andreas_Weimann', 'http://dbpedia.org/resource/Andrzej_Artur_Zamoyski__Andrzej_Artur_Zamoyski__1', 'http://dbpedia.org/resource/Andy_Borg', 'http://dbpedia.org/resource/Angel_Somov', 'http://dbpedia.org/resource/Angelika_Amon', 'http://dbpedia.org/resource/Angelika_Hauff', 'http://dbpedia.org/resource/Anita_Bose_Pfaff', 'http://dbpedia.org/resource/Anja_Richter', 'http://dbpedia.org/resource/Anna_Freud', 'http://dbpedia.org/resource/Anna_Gmeyner', 'http://dbpedia.org/resource/Anna_Kallina', 'http://dbpedia.org/resource/Anna_Mahler', 'http://dbpedia.org/resource/Anna_Sacher', 'http://dbpedia.org/resource/Anna-Maria_Haas', 'http://dbpedia.org/resource/Anne_Kahane', 'http://dbpedia.org/resource/Anne_of_Austria,_Landgravine_of_Thuringia', 'http://dbpedia.org/resource/Anneliese_Hitzenberger', 'http://dbpedia.org/resource/Annemarie_Selinko', 'http://dbpedia.org/resource/Annie_Altschul', 'http://dbpedia.org/resource/Annie_Rosar', 'http://dbpedia.org/resource/Anny_Felbermayer', 'http://dbpedia.org/resource/Anny_Miletty', 'http://dbpedia.org/resource/Anny_Rosenberg_Katan', 'http://dbpedia.org/resource/Anton_Endstorfer', 'http://dbpedia.org/resource/Anton_Erhard_Martinelli', 'http://dbpedia.org/resource/Anton_Formann', 'http://dbpedia.org/resource/Anton_Franz_de_Paula_Graf_Lamberg-Sprinzenstein', 'http://dbpedia.org/resource/Anton_Gartner', 'http://dbpedia.org/resource/Anton_Josef_Gruscha', 'http://dbpedia.org/resource/Anton_Josef_Trčka', 'http://dbpedia.org/resource/Anton_Marek', 'http://dbpedia.org/resource/Anton_Pelinka', 'http://dbpedia.org/resource/Anton_Piëch', 'http://dbpedia.org/resource/Anton_Powolny', 'http://dbpedia.org/resource/Anton_Schall', 'http://dbpedia.org/resource/Anton_Schmid', 'http://dbpedia.org/resource/Anton_Summer', 'http://dbpedia.org/resource/Anton_Velim', 'http://dbpedia.org/resource/Anton_von_Schmerling', 'http://dbpedia.org/resource/Antonia_Bruha', 'http://dbpedia.org/resource/Antonia_Fahberg', 'http://dbpedia.org/resource/Antonín_Theodor_Colloredo-Waldsee', 'http://dbpedia.org/resource/Arabella_Kiesbauer', 'http://dbpedia.org/resource/Arik_Brauer', 'http://dbpedia.org/resource/Armin_Mujakic', 'http://dbpedia.org/resource/Arnold_Korff', 'http://dbpedia.org/resource/Arnold_Ruiner', 'http://dbpedia.org/resource/Arnolt_Bronnen', 'http://dbpedia.org/resource/Arpad_Weixlgärtner', 'http://dbpedia.org/resource/Arthur_Baar', 'http://dbpedia.org/resource/Arthur_Gregor', 'http://dbpedia.org/resource/Arthur_Maria_Rabenalt', 'http://dbpedia.org/resource/Arthur_Schnitzler', 'http://dbpedia.org/resource/Arthur_Steiner', 'http://dbpedia.org/resource/Arthur_Zborzil', 'http://dbpedia.org/resource/Attila_Sekerlioglu', 'http://dbpedia.org/resource/August_Aichhorn', 'http://dbpedia.org/resource/August_Schaffer', 'http://dbpedia.org/resource/August_Starek', 'http://dbpedia.org/resource/August_Zang', 'http://dbpedia.org/resource/Auguste_Fickert', 'http://dbpedia.org/resource/Auguste_Groner', 'http://dbpedia.org/resource/Auguste_Pünkösdy', 'http://dbpedia.org/resource/Avraham_Fahn', 'http://dbpedia.org/resource/Axel_Birnbaum', 'http://dbpedia.org/resource/Aylin_Kösetürk', 'http://dbpedia.org/resource/Barbara_Albert', 'http://dbpedia.org/resource/Bárbara_Maix', 'http://dbpedia.org/resource/Barbara_Milano_Keenan', 'http://dbpedia.org/resource/Barbara_Paulus', 'http://dbpedia.org/resource/Barbara_Strass', 'http://dbpedia.org/resource/Barbara_Valentin', 'http://dbpedia.org/resource/Baron_Ignaz_von_Plener', 'http://dbpedia.org/resource/Baron_Karl_von_Hasenauer', 'http://dbpedia.org/resource/Baron_Max_Wladimir_von_Beck', 'http://dbpedia.org/resource/Baroness_Mary_Vetsera', 'http://dbpedia.org/resource/Bartoloměj_Kuru', 'http://dbpedia.org/resource/Beate_Meinl-Reisinger', 'http://dbpedia.org/resource/Beate_Sirota_Gordon', 'http://dbpedia.org/resource/Beatrix_Müllner', 'http://dbpedia.org/resource/Bedřich_Nikodém', 'http://dbpedia.org/resource/Bénédict_Morel', 'http://dbpedia.org/resource/Benedikt_Arnstein', 'http://dbpedia.org/resource/Benjamin_Abeles', 'http://dbpedia.org/resource/Benjamin_Fasching', 'http://dbpedia.org/resource/Benno_Kerry', 'http://dbpedia.org/resource/Bernard_B._Fall', 'http://dbpedia.org/resource/Bernhard_Hendl', 'http://dbpedia.org/resource/Bernhard_Janeczek', 'http://dbpedia.org/resource/Bernhard_Kohl', 'http://dbpedia.org/resource/Bernhard_Pils', 'http://dbpedia.org/resource/Bernhard_Starkbaum', 'http://dbpedia.org/resource/Bernhard_Unger', 'http://dbpedia.org/resource/Bernt_Haas', 'http://dbpedia.org/resource/Berta_Karlik', 'http://dbpedia.org/resource/Bertha_Braunthal', 'http://dbpedia.org/resource/Bertha_Pappenheim', 'http://dbpedia.org/resource/Berthold_Viertel', 'http://dbpedia.org/resource/Bettina_Ehrlich', 'http://dbpedia.org/resource/Betty_Bird', 'http://dbpedia.org/resource/Bibi_Besch', 'http://dbpedia.org/resource/Bill_Leeb', 'http://dbpedia.org/resource/BillyBoy*', 'http://dbpedia.org/resource/Binyamin_Arditi', 'http://dbpedia.org/resource/Birgit_Coufal', 'http://dbpedia.org/resource/Birgit_Jürgenssen', 'http://dbpedia.org/resource/Birgit_Koschischek', 'http://dbpedia.org/resource/Birgit_Schielin', 'http://dbpedia.org/resource/Blanche_Christine_Olschak', 'http://dbpedia.org/resource/Bob_Symes', 'http://dbpedia.org/resource/Boban_Jančevski', 'http://dbpedia.org/resource/Bobby_Olejnik', 'http://dbpedia.org/resource/Boris_Kidrič', 'http://dbpedia.org/resource/Boris_Kodjoe', 'http://dbpedia.org/resource/Boris_Maciejovsky', 'http://dbpedia.org/resource/Božena_Němcová', 'http://dbpedia.org/resource/Božo_Kovačević_(footballer)', 'http://dbpedia.org/resource/Božo_Škerlj', 'http://dbpedia.org/resource/Brian_Laudrup', 'http://dbpedia.org/resource/Brigitta_Pecanka', 'http://dbpedia.org/resource/Brigitte_Bailer-Galanda', 'http://dbpedia.org/resource/Brigitte_Bierlein', 'http://dbpedia.org/resource/Brigitte_Duda', 'http://dbpedia.org/resource/Brigitte_Kindler', 'http://dbpedia.org/resource/Bruno_Bettelheim', 'http://dbpedia.org/resource/Bruno_Dallansky', 'http://dbpedia.org/resource/Bruno_Engelmeier', 'http://dbpedia.org/resource/Bruno_Kreisky', 'http://dbpedia.org/resource/Bruno_Pittermann', 'http://dbpedia.org/resource/Bruno_Touschek', 'http://dbpedia.org/resource/Camillo_Jerusalem', 'http://dbpedia.org/resource/Can_Keles', 'http://dbpedia.org/resource/Carl_Auer_von_Welsbach', 'http://dbpedia.org/resource/Carl_Auteried_Jr.', 'http://dbpedia.org/resource/Carl_Auteried', 'http://dbpedia.org/resource/Carl_Djerassi', 'http://dbpedia.org/resource/Carl_Dreher', 'http://dbpedia.org/resource/Carl_Esmond', 'http://dbpedia.org/resource/Carl_Goetz', 'http://dbpedia.org/resource/Carl_Kellner_(mystic)', 'http://dbpedia.org/resource/Carl_Krusada', 'http://dbpedia.org/resource/Carl_Moll', 'http://dbpedia.org/resource/Carl_Schlechter', 'http://dbpedia.org/resource/Carl_Vaugoin', 'http://dbpedia.org/resource/Carlos_Claverie_(tennis)', 'http://dbpedia.org/resource/Caroline_Sieber', 'http://dbpedia.org/resource/Cecil_van_Haanen', 'http://dbpedia.org/resource/Celia_Lovsky', 'http://dbpedia.org/resource/Cem_Tosun', 'http://dbpedia.org/resource/Cemil_Tosun', 'http://dbpedia.org/resource/Charles_Bluhdorn', 'http://dbpedia.org/resource/Charles_Goldner', 'http://dbpedia.org/resource/Chava_Lifshitz', 'http://dbpedia.org/resource/Chris_Gaffney_(musician)', 'http://dbpedia.org/resource/Christian_Binder', 'http://dbpedia.org/resource/Christian_Kellner', 'http://dbpedia.org/resource/Christian_Kern', 'http://dbpedia.org/resource/Christian_Koeberl', 'http://dbpedia.org/resource/Christian_Meidlinger', 'http://dbpedia.org/resource/Christian_Prosenik', 'http://dbpedia.org/resource/Christian_Schandl', 'http://dbpedia.org/resource/Christian_Sittler', 'http://dbpedia.org/resource/Christian_Thonhofer', 'http://dbpedia.org/resource/Christian_Ulrich', 'http://dbpedia.org/resource/Christiane_Floyd', 'http://dbpedia.org/resource/Christiane_Hörbiger', 'http://dbpedia.org/resource/Christina_Schild', 'http://dbpedia.org/resource/Christine_Böhm', 'http://dbpedia.org/resource/Christine_Buchegger', 'http://dbpedia.org/resource/Christine_Müllner', 'http://dbpedia.org/resource/Christine_Nöstlinger', 'http://dbpedia.org/resource/Christine_Schuberth', 'http://dbpedia.org/resource/Christine_Sommer', 'http://dbpedia.org/resource/Christl_Wöber', 'http://dbpedia.org/resource/Christoph_Chorherr', 'http://dbpedia.org/resource/Christoph_Edelmüller', 'http://dbpedia.org/resource/Christoph_Haas', 'http://dbpedia.org/resource/Christoph_Knasmüllner', 'http://dbpedia.org/resource/Christoph_Kobald', 'http://dbpedia.org/resource/Christoph_Pöstinger', 'http://dbpedia.org/resource/Christoph_Saurer', 'http://dbpedia.org/resource/Christoph_Soukup', 'http://dbpedia.org/resource/Christoph_Waltz', 'http://dbpedia.org/resource/Christopher_Alexander', 'http://dbpedia.org/resource/Christopher_Drazan', 'http://dbpedia.org/resource/Christopher_Knett', 'http://dbpedia.org/resource/Cindy_Kurleto', 'http://dbpedia.org/resource/Clarissa_Stadler', 'http://dbpedia.org/resource/Claude_Farell', 'http://dbpedia.org/resource/Claudia_Schmied', 'http://dbpedia.org/resource/Clemens_Herschel', 'http://dbpedia.org/resource/Clemens_Jabloner', 'http://dbpedia.org/resource/Clemens_Trimmel', 'http://dbpedia.org/resource/Clemens_von_Pirquet', 'http://dbpedia.org/resource/Clementine_Plessner', 'http://dbpedia.org/resource/Conrad_von_Molo', 'http://dbpedia.org/resource/Constantin_Blaha', 'http://dbpedia.org/resource/Constantin_von_Ettingshausen', 'http://dbpedia.org/resource/Corinna_Kuhnle', 'http://dbpedia.org/resource/Cornelia_James_(glovemaker)', 'http://dbpedia.org/resource/Cornelius_Van_Hemert_Engert', 'http://dbpedia.org/resource/Count_Johann_Nepomuk_Wilczek', 'http://dbpedia.org/resource/Count_Karl_Ferdinand_von_Buol', 'http://dbpedia.org/resource/Count_Karl_Sigmund_von_Hohenwart', 'http://dbpedia.org/resource/Count_Manfred_von_Clary-Aldringen', 'http://dbpedia.org/resource/Count_Moritz_von_Fries', 'http://dbpedia.org/resource/Countess_Maria_Antonia_of_Waldstein-Wartenberg', 'http://dbpedia.org/resource/Curt_Leviant', 'http://dbpedia.org/resource/Dalibor_Velimirovic', 'http://dbpedia.org/resource/Damir_Canadi', 'http://dbpedia.org/resource/Daniel_Drescher', 'http://dbpedia.org/resource/Daniel_Gramann', 'http://dbpedia.org/resource/Daniel_Gran', 'http://dbpedia.org/resource/Daniel_Luxbacher', 'http://dbpedia.org/resource/Daniel_Schöpf', 'http://dbpedia.org/resource/Daniel_Wolf', 'http://dbpedia.org/resource/Daniela_Klemenschits', 'http://dbpedia.org/resource/Danijel_Klarić', 'http://dbpedia.org/resource/Dave_Okumu__Dave_Okumu__1', 'http://dbpedia.org/resource/David_Alaba__David_Alaba__1', 'http://dbpedia.org/resource/David_Brandfellner', 'http://dbpedia.org/resource/David_Pryce-Jones', 'http://dbpedia.org/resource/David_Rubinger', 'http://dbpedia.org/resource/David_Stec', 'http://dbpedia.org/resource/Deborah_Sengl', 'http://dbpedia.org/resource/Dejan_Ljubičić', 'http://dbpedia.org/resource/Deliman', 'http://dbpedia.org/resource/Demeter_Laccataris', 'http://dbpedia.org/resource/Denis_Berger', 'http://dbpedia.org/resource/Denise_Altmann', 'http://dbpedia.org/resource/Denise_Cesky', 'http://dbpedia.org/resource/Dennis_Snower', 'http://dbpedia.org/resource/Dési_von_Halban', 'http://dbpedia.org/resource/Dick_Klugman', 'http://dbpedia.org/resource/Dietfried_Bernet', 'http://dbpedia.org/resource/Dietrich_Siegl', 'http://dbpedia.org/resource/Dina_Feitelson', 'http://dbpedia.org/resource/Dinos_Angelidis', 'http://dbpedia.org/resource/Dominik_Braunsteiner', 'http://dbpedia.org/resource/Dominik_Burusic', 'http://dbpedia.org/resource/Dominik_Nepp', 'http://dbpedia.org/resource/Dominik_Prokop', 'http://dbpedia.org/resource/Dominik_Rotter', 'http://dbpedia.org/resource/Dominik_Siedlaczek', 'http://dbpedia.org/resource/Dominik_Thalhammer', 'http://dbpedia.org/resource/Dominik_Wydra', 'http://dbpedia.org/resource/Dominique_Heinrich', 'http://dbpedia.org/resource/Dominique_Taboga', 'http://dbpedia.org/resource/Dora_Kaiser', 'http://dbpedia.org/resource/Dora_Kallmus', 'http://dbpedia.org/resource/Dora_von_Stockert-Meynert', 'http://dbpedia.org/resource/Dorian_Concept', 'http://dbpedia.org/resource/Doris_Bensimon', 'http://dbpedia.org/resource/Doris_Bures', 'http://dbpedia.org/resource/Doris_Köhler', 'http://dbpedia.org/resource/Doris_Meltzer_(handballer)', 'http://dbpedia.org/resource/Dorit_Ganster', 'http://dbpedia.org/resource/Dražen_Bagarić', 'http://dbpedia.org/resource/Eddie_Polo__Eddie_Polo__1', 'http://dbpedia.org/resource/Edgar_Chahine', 'http://dbpedia.org/resource/Edi_Bauer', 'http://dbpedia.org/resource/Edith_Elmay', 'http://dbpedia.org/resource/Edith_Flagg', 'http://dbpedia.org/resource/Edith_Klemperer', 'http://dbpedia.org/resource/Edith_Mill', 'http://dbpedia.org/resource/Edith_Neumann', 'http://dbpedia.org/resource/Edith_Prager', 'http://dbpedia.org/resource/Edmond_Bernhardt', 'http://dbpedia.org/resource/Eduard_Budil', 'http://dbpedia.org/resource/Eduard_Charlemont', 'http://dbpedia.org/resource/Eduard_Frühwirth', 'http://dbpedia.org/resource/Eduard_Havlicek', 'http://dbpedia.org/resource/Eduard_Helly', 'http://dbpedia.org/resource/Eduard_Krieger', 'http://dbpedia.org/resource/Eduard_Sekler', 'http://dbpedia.org/resource/Eduard_Strauss_II', 'http://dbpedia.org/resource/Eduard_Taaffe,_11th_Viscount_Taaffe', 'http://dbpedia.org/resource/Eduard_Uhl', 'http://dbpedia.org/resource/Eduard_von_Borsody', 'http://dbpedia.org/resource/Eduard_von_Winterstein', 'http://dbpedia.org/resource/Edward_Bernays', 'http://dbpedia.org/resource/Edwin_E._Salpeter', 'http://dbpedia.org/resource/Edwin_Müller', 'http://dbpedia.org/resource/Egon_Eis', 'http://dbpedia.org/resource/Egon_Engel', 'http://dbpedia.org/resource/Egon_Pollak', 'http://dbpedia.org/resource/Egon_Wellesz', 'http://dbpedia.org/resource/Ehud_Avriel', 'http://dbpedia.org/resource/Ekkehard_Arendt', 'http://dbpedia.org/resource/Eldis_Bajrami', 'http://dbpedia.org/resource/Eleonore_de_Ahna', 'http://dbpedia.org/resource/Eleonore_Pecanka', 'http://dbpedia.org/resource/Elfe_Gerhart', 'http://dbpedia.org/resource/Elfi_von_Dassanowsky', 'http://dbpedia.org/resource/Elfriede_Geiringer', 'http://dbpedia.org/resource/Elfriede_Hartmann', 'http://dbpedia.org/resource/Elfriede_Hirnschall', 'http://dbpedia.org/resource/Elfriede_Ott', 'http://dbpedia.org/resource/Elfriede_Tungl', 'http://dbpedia.org/resource/Eli_Kassner', 'http://dbpedia.org/resource/Eliezer_Preminger', 'http://dbpedia.org/resource/Elisabeth_Binder', 'http://dbpedia.org/resource/Elisabeth_de_Waal', 'http://dbpedia.org/resource/Elisabeth_Gehrer', 'http://dbpedia.org/resource/Elisabeth_Jäger', 'http://dbpedia.org/resource/Elisabeth_Leinfellner', 'http://dbpedia.org/resource/Elisabeth_Lovrek', 'http://dbpedia.org/resource/Elisabeth_Neumann-Viertel', 'http://dbpedia.org/resource/Elisabeth_Pistauer', 'http://dbpedia.org/resource/Elisabeth_Tichy-Fisslberger', 'http://dbpedia.org/resource/Elisabeth_Trissenaar', 'http://dbpedia.org/resource/Elisabeth_von_Magnus', 'http://dbpedia.org/resource/Elisabeth_Waldheim', 'http://dbpedia.org/resource/Elise_Ransonnet-Villez', 'http://dbpedia.org/resource/Elise_Wiedermann', 'http://dbpedia.org/resource/Elizaveta_Karamihailova', 'http://dbpedia.org/resource/Ella_Briggs', 'http://dbpedia.org/resource/Ellen_Richter', 'http://dbpedia.org/resource/Elsa_Asenijeff', 'http://dbpedia.org/resource/Elsa_Bernstein', 'http://dbpedia.org/resource/Else_Jerusalem', 'http://dbpedia.org/resource/Elvira_Fischer', 'http://dbpedia.org/resource/Emil_Artin', 'http://dbpedia.org/resource/Emil_Fey', 'http://dbpedia.org/resource/Emil_Hoppe', 'http://dbpedia.org/resource/Emil_Justitz', 'http://dbpedia.org/resource/Emil_Lind', 'http://dbpedia.org/resource/Emil_Zsigmondy', 'http://dbpedia.org/resource/Émile_Jaques-Dalcroze', 'http://dbpedia.org/resource/Emile_Zuckerkandl', 'http://dbpedia.org/resource/Emilie_Louise_Flöge', 'http://dbpedia.org/resource/Emilie_Schenkl', 'http://dbpedia.org/resource/Emily_Cox_(actress)', 'http://dbpedia.org/resource/Emma_Bormann', 'http://dbpedia.org/resource/Emma_Fordyce_MacRae', 'http://dbpedia.org/resource/Emma_Juch', 'http://dbpedia.org/resource/Emmanuel_Tjeknavorian', 'http://dbpedia.org/resource/Emmerich_Hanus', 'http://dbpedia.org/resource/Emmerich_Schrenk', 'http://dbpedia.org/resource/Engelbert_König', 'http://dbpedia.org/resource/Enrica_von_Handel-Mazzetti', 'http://dbpedia.org/resource/Ercan_Kara', 'http://dbpedia.org/resource/Eren_Keles', 'http://dbpedia.org/resource/Erhard_Busek', 'http://dbpedia.org/resource/Eric_de_Kolb', 'http://dbpedia.org/resource/Eric_Kandel', 'http://dbpedia.org/resource/Eric_Pleskow', 'http://dbpedia.org/resource/Eric_Pohlmann', 'http://dbpedia.org/resource/Eric_Wolf', 'http://dbpedia.org/resource/Erica_Mann', 'http://dbpedia.org/resource/Erica_Tietze-Conrat', 'http://dbpedia.org/resource/Erica_Vaal', 'http://dbpedia.org/resource/Erich_Auer', 'http://dbpedia.org/resource/Erich_Bielka', 'http://dbpedia.org/resource/Erich_Bornberg-Bauer', 'http://dbpedia.org/resource/Erich_Feigl', 'http://dbpedia.org/resource/Erich_Geiringer', 'http://dbpedia.org/resource/Erich_Hof', 'http://dbpedia.org/resource/Erich_Jantsch', 'http://dbpedia.org/resource/Erich_Kleiber', 'http://dbpedia.org/resource/Erich_Korbel', 'http://dbpedia.org/resource/Erich_Obermayer', 'http://dbpedia.org/resource/Erich_Padalewski', 'http://dbpedia.org/resource/Erich_Probst', 'http://dbpedia.org/resource/Erich_Reich', 'http://dbpedia.org/resource/Erich_von_Stroheim', 'http://dbpedia.org/resource/Erich_von_Tschermak', 'http://dbpedia.org/resource/Erico_Spinadel', 'http://dbpedia.org/resource/Erik_Freitag', 'http://dbpedia.org/resource/Erik_Frey', 'http://dbpedia.org/resource/Erik_Jan_Hanussen', 'http://dbpedia.org/resource/Erika_Bogovic', 'http://dbpedia.org/resource/Erika_Csar', 'http://dbpedia.org/resource/Erika_Morini', 'http://dbpedia.org/resource/Erika_Pluhar', 'http://dbpedia.org/resource/Erna_Furman', 'http://dbpedia.org/resource/Erna_Low', 'http://dbpedia.org/resource/Erna_Musik', 'http://dbpedia.org/resource/Ernest_Braun', 'http://dbpedia.org/resource/Ernest_Dichter', 'http://dbpedia.org/resource/Ernest_Gold', 'http://dbpedia.org/resource/Ernest_Johann_Nepomuk', 'http://dbpedia.org/resource/Ernest_Lindner', 'http://dbpedia.org/resource/Ernest_Wenkert', 'http://dbpedia.org/resource/Ernst_Baumeister', 'http://dbpedia.org/resource/Ernst_Dokupil', 'http://dbpedia.org/resource/Ernst_Drexler', 'http://dbpedia.org/resource/Ernst_Fiala_(footballer)', 'http://dbpedia.org/resource/Ernst_Florian_Winter', 'http://dbpedia.org/resource/Ernst_Fuchs_(doctor)', 'http://dbpedia.org/resource/Ernst_Fuhrmann', 'http://dbpedia.org/resource/Ernst_Girzick', 'http://dbpedia.org/resource/Ernst_Grünfeld', 'http://dbpedia.org/resource/Ernst_Happel', 'http://dbpedia.org/resource/Ernst_Hinterberger', 'http://dbpedia.org/resource/Ernst_Huber_(painter)', 'http://dbpedia.org/resource/Ernst_Kozlicek', 'http://dbpedia.org/resource/Ernst_Ludwig_Franke', 'http://dbpedia.org/resource/Ernst_Mader', 'http://dbpedia.org/resource/Ernst_Marischka', 'http://dbpedia.org/resource/Ernst_Ocwirk', 'http://dbpedia.org/resource/Ernst_Ogris', 'http://dbpedia.org/resource/Ernst_Pröckl', 'http://dbpedia.org/resource/Ernst_Rabel', 'http://dbpedia.org/resource/Ernst_Reitermaier', 'http://dbpedia.org/resource/Ernst_Rothauser', 'http://dbpedia.org/resource/Ernst_Sigismund_Fischer', 'http://dbpedia.org/resource/Ernst_Stankovski', 'http://dbpedia.org/resource/Ernst_Stojaspal', 'http://dbpedia.org/resource/Ernst_von_Trautson', 'http://dbpedia.org/resource/Ernst_Welisch', 'http://dbpedia.org/resource/Ernst,_Baron_von_Feuchtersleben', 'http://dbpedia.org/resource/Erwin_Hochmair', 'http://dbpedia.org/resource/Erwin_Ilz', 'http://dbpedia.org/resource/Erwin_Lanc', 'http://dbpedia.org/resource/Erwin_Puchinger', 'http://dbpedia.org/resource/Erwin_Scharf_(art_director)', 'http://dbpedia.org/resource/Erwin_Schrödinger', 'http://dbpedia.org/resource/Erwin_Strahl', 'http://dbpedia.org/resource/Erwin_von_Zach', 'http://dbpedia.org/resource/Etti_Plesch', 'http://dbpedia.org/resource/Eugen_Freund', 'http://dbpedia.org/resource/Eugen_Jensen', 'http://dbpedia.org/resource/Eugen_Scotoni', 'http://dbpedia.org/resource/Eugen_Thiele', 'http://dbpedia.org/resource/Eugene_Biel-Bienne', 'http://dbpedia.org/resource/Eugene_Braunwald', 'http://dbpedia.org/resource/Eugene_Gendlin', 'http://dbpedia.org/resource/Eugene_von_Guerard', 'http://dbpedia.org/resource/Eva_Cambal', 'http://dbpedia.org/resource/Eva_Cox', 'http://dbpedia.org/resource/Eva_Ibbotson', 'http://dbpedia.org/resource/Eva_May', 'http://dbpedia.org/resource/Eva_Pfarrhofer', 'http://dbpedia.org/resource/Eva_Schmidt-Kolmer', 'http://dbpedia.org/resource/Eva_Vecsei', 'http://dbpedia.org/resource/Evelyn_Regner', 'http://dbpedia.org/resource/Evelyn_Schmied', 'http://dbpedia.org/resource/F._Hugh_Herbert', 'http://dbpedia.org/resource/Falco_(musician)', 'http://dbpedia.org/resource/Felice_Rix-Ueno', 'http://dbpedia.org/resource/Felix_Basch', 'http://dbpedia.org/resource/Felix_Bloch_(diplomatic_officer)', 'http://dbpedia.org/resource/Felix_Blohberger', 'http://dbpedia.org/resource/Felix_Ehrenhaft', 'http://dbpedia.org/resource/Felix_Frankfurter', 'http://dbpedia.org/resource/Felix_Gasselich', 'http://dbpedia.org/resource/Felix_Kammerer', 'http://dbpedia.org/resource/Felix_Kwieton', 'http://dbpedia.org/resource/Felix_Landau', 'http://dbpedia.org/resource/Felix_Latzke', 'http://dbpedia.org/resource/Felix_Maria_von_Exner-Ewarten', 'http://dbpedia.org/resource/Felix_Ritzinger', 'http://dbpedia.org/resource/Felix_Rohatyn', 'http://dbpedia.org/resource/Feo_Aladag', 'http://dbpedia.org/resource/Ferdi_Statzer', 'http://dbpedia.org/resource/Ferdinand_Fellner', 'http://dbpedia.org/resource/Ferdinand_Humenberger', 'http://dbpedia.org/resource/Ferdinand_Janotka', 'http://dbpedia.org/resource/Ferdinand_Kitt', 'http://dbpedia.org/resource/Ferdinand_Kronawetter', 'http://dbpedia.org/resource/Ferdinand_Marian', 'http://dbpedia.org/resource/Ferdinand_Piëch', 'http://dbpedia.org/resource/Ferdinand_Schmutzer', 'http://dbpedia.org/resource/Ferenc_József,_Prince_Koháry_of_Csábrág_and_Szitnya', 'http://dbpedia.org/resource/Fernando_de_Silva,_12th_Duke_of_Alba', 'http://dbpedia.org/resource/Ferry_Dedovich', 'http://dbpedia.org/resource/Fiorenzo_Marini', 'http://dbpedia.org/resource/Flavius_Daniliuc', 'http://dbpedia.org/resource/Florian_Bacher', 'http://dbpedia.org/resource/Florian_Janistyn', 'http://dbpedia.org/resource/Florian_Wustinger', 'http://dbpedia.org/resource/Francesco_Lovrić', 'http://dbpedia.org/resource/Francis_Lawrence', 'http://dbpedia.org/resource/Françoise_Brauner', 'http://dbpedia.org/resource/Franjo_Klein', 'http://dbpedia.org/resource/Franjo_Šefer', 'http://dbpedia.org/resource/Frank_Arnau', 'http://dbpedia.org/resource/Frank_Butters', 'http://dbpedia.org/resource/Frank_Spitzer', 'http://dbpedia.org/resource/František_Svoboda', 'http://dbpedia.org/resource/Franz_Alexander_Kern', 'http://dbpedia.org/resource/Franz_Antel', 'http://dbpedia.org/resource/Franz_Antoine', 'http://dbpedia.org/resource/Franz_Anton_von_Harrach', 'http://dbpedia.org/resource/Franz_Blei', 'http://dbpedia.org/resource/Franz_Böheim', 'http://dbpedia.org/resource/Franz_Borkenau', 'http://dbpedia.org/resource/Franz_Brunner_(wrestler)', 'http://dbpedia.org/resource/Franz_Csöngei', 'http://dbpedia.org/resource/Franz_Dusika', 'http://dbpedia.org/resource/Franz_Exner_(criminologist)', 'http://dbpedia.org/resource/Franz_Eybl', 'http://dbpedia.org/resource/Franz_Grillparzer', 'http://dbpedia.org/resource/Franz_Hasil', 'http://dbpedia.org/resource/Franz_Höbling', 'http://dbpedia.org/resource/Franz_Hruschka', 'http://dbpedia.org/resource/Franz_Inthaler', 'http://dbpedia.org/resource/Franz_Jáchym', 'http://dbpedia.org/resource/Franz_Jelinek__Franz_Jelinek__1', 'http://dbpedia.org/resource/Franz_Kellinger', 'http://dbpedia.org/resource/Franz_Kraemer', 'http://dbpedia.org/resource/Franz_Langthaler', 'http://dbpedia.org/resource/Franz_Maresch', 'http://dbpedia.org/resource/Franz_Novotny', 'http://dbpedia.org/resource/Franz_Offenberger', 'http://dbpedia.org/resource/Franz_Peydl', 'http://dbpedia.org/resource/Franz_Pfaudler', 'http://dbpedia.org/resource/Franz_Pleyer', 'http://dbpedia.org/resource/Franz_Potucek', 'http://dbpedia.org/resource/Franz_Riegler_(footballer,_born_1915)', 'http://dbpedia.org/resource/Franz_S._Exner', 'http://dbpedia.org/resource/Franz_S._Leichter', 'http://dbpedia.org/resource/Franz_Sarnitz', 'http://dbpedia.org/resource/Franz_Schitzhofer', 'http://dbpedia.org/resource/Franz_Schuh_(swimmer)', 'http://dbpedia.org/resource/Franz_Schüßler', 'http://dbpedia.org/resource/Franz_Schuster', 'http://dbpedia.org/resource/Franz_Stadion,_Count_von_Warthausen', 'http://dbpedia.org/resource/Franz_Stocher', 'http://dbpedia.org/resource/Franz_Stoss', 'http://dbpedia.org/resource/Franz_Viehböck', 'http://dbpedia.org/resource/Franz_von_Liszt', 'http://dbpedia.org/resource/Franz_Vranitzky', 'http://dbpedia.org/resource/Franz_Wagner_(footballer)', 'http://dbpedia.org/resource/Franz_Werner', 'http://dbpedia.org/resource/Franz_Wimmer', 'http://dbpedia.org/resource/Franz_Worisch', 'http://dbpedia.org/resource/Franz_Xaver_Bergmann', 'http://dbpedia.org/resource/Franz_Xaver_Nagl', 'http://dbpedia.org/resource/Franz_Xaver_Wolfgang_Mozart', 'http://dbpedia.org/resource/Franz-Joseph_Müller_von_Reichenstein', 'http://dbpedia.org/resource/Franziska_Donner', 'http://dbpedia.org/resource/Franziska_Seidl', 'http://dbpedia.org/resource/Franziska_Weisz', 'http://dbpedia.org/resource/Fred_Berger_(politician)', 'http://dbpedia.org/resource/Fred_David', 'http://dbpedia.org/resource/Fred_Essler', 'http://dbpedia.org/resource/Fred_Jordan_(publisher)', 'http://dbpedia.org/resource/Fred_Rauch', 'http://dbpedia.org/resource/Fred_Singer', 'http://dbpedia.org/resource/Fred_Spira', 'http://dbpedia.org/resource/Frederick_Mors', 'http://dbpedia.org/resource/Frederick_Reif', 'http://dbpedia.org/resource/Frederick_Schiller__Frederick_Schiller__1', 'http://dbpedia.org/resource/Frederick_Schrecker', 'http://dbpedia.org/resource/Frida_Richard', 'http://dbpedia.org/resource/Friedensreich_Hundertwasser', 'http://dbpedia.org/resource/Friederich_Franzl', 'http://dbpedia.org/resource/Friederich_Ignaz_Mautner', 'http://dbpedia.org/resource/Friederike_Stern', 'http://dbpedia.org/resource/Friedrich_Cerha', 'http://dbpedia.org/resource/Friedrich_Dietz_von_Weidenberg', 'http://dbpedia.org/resource/Friedrich_Donenfeld', 'http://dbpedia.org/resource/Friedrich_Egon_von_Fürstenberg', 'http://dbpedia.org/resource/Friedrich_Feher', 'http://dbpedia.org/resource/Friedrich_Gulda', 'http://dbpedia.org/resource/Friedrich_Hasenöhrl', 'http://dbpedia.org/resource/Friedrich_Hassaurek', 'http://dbpedia.org/resource/Friedrich_Hayek', 'http://dbpedia.org/resource/Friedrich_Hillegeist', 'http://dbpedia.org/resource/Friedrich_Katz', 'http://dbpedia.org/resource/Friedrich_Kerr', 'http://dbpedia.org/resource/Friedrich_Mandl', 'http://dbpedia.org/resource/Friedrich_Paneth', 'http://dbpedia.org/resource/Friedrich_Porges', 'http://dbpedia.org/resource/Friedrich_Prince_zu_Schwarzenberg', 'http://dbpedia.org/resource/Friedrich_Schauta', 'http://dbpedia.org/resource/Friedrich_Schilcher', 'http://dbpedia.org/resource/Friedrich_Suda', 'http://dbpedia.</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="D44" t="b">
@@ -1318,17 +1318,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Which bridges cross the Seine?</t>
+          <t>Who created Family Guy?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Passerelle_Debilly', 'http://dbpedia.org/resource/Passerelle_Simone-de-Beauvoir', 'http://dbpedia.org/resource/Pont_Alexandre_III', 'http://dbpedia.org/resource/Pont_amont', 'http://dbpedia.org/resource/Pont_au_Change', 'http://dbpedia.org/resource/Pont_au_Double', 'http://dbpedia.org/resource/Pont_aval', 'http://dbpedia.org/resource/Pont_Charles-de-Gaulle', "http://dbpedia.org/resource/Pont_d'Austerlitz", "http://dbpedia.org/resource/Pont_d'Iéna", 'http://dbpedia.org/resource/Pont_de_Bercy', 'http://dbpedia.org/resource/Pont_de_Bir-Hakeim', 'http://dbpedia.org/resource/Pont_de_Brotonne', 'http://dbpedia.org/resource/Pont_de_Grenelle', "http://dbpedia.org/resource/Pont_de_l'Alma", "http://dbpedia.org/resource/Pont_de_l'Archevêché", 'http://dbpedia.org/resource/Pont_de_la_Concorde_(Paris)', 'http://dbpedia.org/resource/Pont_de_la_Tournelle', 'http://dbpedia.org/resource/Pont_de_Neuilly', 'http://dbpedia.org/resource/Pont_de_Normandie', 'http://dbpedia.org/resource/Pont_de_Sully', 'http://dbpedia.org/resource/Pont_de_Tolbiac', 'http://dbpedia.org/resource/Pont_des_Invalides', 'http://dbpedia.org/resource/Pont_du_Carrousel', 'http://dbpedia.org/resource/Pont_du_Garigliano', 'http://dbpedia.org/resource/Pont_Gustave-Flaubert', 'http://dbpedia.org/resource/Pont_Louis-Philippe', 'http://dbpedia.org/resource/Pont_Marie', 'http://dbpedia.org/resource/Pont_National', 'http://dbpedia.org/resource/Pont_Neuf', 'http://dbpedia.org/resource/Pont_Notre-Dame', 'http://dbpedia.org/resource/Pont_Rouelle', 'http://dbpedia.org/resource/Pont_Royal', "http://dbpedia.org/resource/Port_à_l'Anglais_Bridge", "http://dbpedia.org/resource/Viaduc_d'Austerlitz"]</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Passerelle_Debilly', 'http://dbpedia.org/resource/Passerelle_Simone-de-Beauvoir', 'http://dbpedia.org/resource/Pont_Alexandre_III', 'http://dbpedia.org/resource/Pont_amont', 'http://dbpedia.org/resource/Pont_au_Change', 'http://dbpedia.org/resource/Pont_au_Double', 'http://dbpedia.org/resource/Pont_aval', 'http://dbpedia.org/resource/Pont_Charles-de-Gaulle', "http://dbpedia.org/resource/Pont_d'Austerlitz", "http://dbpedia.org/resource/Pont_d'Iéna", 'http://dbpedia.org/resource/Pont_de_Bercy', 'http://dbpedia.org/resource/Pont_de_Bir-Hakeim', 'http://dbpedia.org/resource/Pont_de_Brotonne', 'http://dbpedia.org/resource/Pont_de_Grenelle', "http://dbpedia.org/resource/Pont_de_l'Alma", "http://dbpedia.org/resource/Pont_de_l'Archevêché", 'http://dbpedia.org/resource/Pont_de_la_Concorde_(Paris)', 'http://dbpedia.org/resource/Pont_de_la_Tournelle', 'http://dbpedia.org/resource/Pont_de_Neuilly', 'http://dbpedia.org/resource/Pont_de_Normandie', 'http://dbpedia.org/resource/Pont_de_Sully', 'http://dbpedia.org/resource/Pont_de_Tolbiac', 'http://dbpedia.org/resource/Pont_des_Invalides', 'http://dbpedia.org/resource/Pont_du_Carrousel', 'http://dbpedia.org/resource/Pont_du_Garigliano', 'http://dbpedia.org/resource/Pont_Gustave-Flaubert', 'http://dbpedia.org/resource/Pont_Louis-Philippe', 'http://dbpedia.org/resource/Pont_Marie', 'http://dbpedia.org/resource/Pont_National', 'http://dbpedia.org/resource/Pont_Neuf', 'http://dbpedia.org/resource/Pont_Notre-Dame', 'http://dbpedia.org/resource/Pont_Rouelle', 'http://dbpedia.org/resource/Pont_Royal', "http://dbpedia.org/resource/Port_à_l'Anglais_Bridge", "http://dbpedia.org/resource/Viaduc_d'Austerlitz"]</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="D45" t="b">
@@ -1338,37 +1338,37 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Which musician wrote the most books?</t>
+          <t>How many people live in the capital of Australia?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Cass_Browne']</t>
+          <t>['453558']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Julius_Lester']</t>
+          <t>['453558']</t>
         </is>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Who discovered Ceres?</t>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+          <t>['34084130000']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+          <t>['34084130000']</t>
         </is>
       </c>
       <c r="D47" t="b">
@@ -1378,17 +1378,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>How many employees does IBM have?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['282100']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['282100']</t>
         </is>
       </c>
       <c r="D48" t="b">
@@ -1398,17 +1398,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>To which countries does the Himalayan mountain system extend?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
         </is>
       </c>
       <c r="D49" t="b">
@@ -1418,140 +1418,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>Who created Goofy?</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
         </is>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Who created Family Guy?</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
-        </is>
-      </c>
-      <c r="D51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>How much is the population of mexico city ?</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>['9209944']</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>['9209944']</t>
-        </is>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Who created Batman?</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
-        </is>
-      </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>How much did Pulp Fiction cost?</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>['8.0']</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>['8.0']</t>
-        </is>
-      </c>
-      <c r="D54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>What movies does Jesse Eisenberg play in?</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Free_Samples', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Fleishman_Is_in_Trouble_(miniseries)', 'http://dbpedia.org/resource/Free_Samples', 'http://dbpedia.org/resource/Get_Real_(American_TV_series)', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
-        </is>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Who created Goofy?</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
-        </is>
-      </c>
-      <c r="D56" t="b">
         <v>1</v>
       </c>
     </row>

--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-think/CoT_llama_wikidata_dbpedia_results_comparison_think.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-think/CoT_llama_wikidata_dbpedia_results_comparison_think.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>question</t>
   </si>
@@ -148,6 +148,9 @@
     <t>Give me a list of all bandleaders that play trumpet.</t>
   </si>
   <si>
+    <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+  </si>
+  <si>
     <t>What is the capital of Canada?</t>
   </si>
   <si>
@@ -293,6 +296,9 @@
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Ottawa']</t>
@@ -683,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,10 +714,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -722,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -736,10 +742,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -750,10 +756,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -764,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -778,10 +784,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -792,10 +798,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -806,10 +812,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -820,10 +826,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -834,10 +840,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -848,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -862,10 +868,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -876,10 +882,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -890,10 +896,10 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -904,10 +910,10 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -918,10 +924,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -932,10 +938,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -946,10 +952,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -960,10 +966,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -974,10 +980,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -988,10 +994,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1002,10 +1008,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1016,10 +1022,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -1030,10 +1036,10 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -1044,10 +1050,10 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1058,10 +1064,10 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -1072,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -1086,10 +1092,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1100,10 +1106,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -1114,10 +1120,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -1128,10 +1134,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -1142,10 +1148,10 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -1156,10 +1162,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -1170,10 +1176,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -1184,10 +1190,10 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -1198,10 +1204,10 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -1212,10 +1218,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -1226,10 +1232,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -1240,10 +1246,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -1254,10 +1260,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -1268,10 +1274,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -1282,10 +1288,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -1296,13 +1302,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1310,13 +1316,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1324,10 +1330,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -1338,10 +1344,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -1352,10 +1358,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -1366,10 +1372,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -1380,12 +1386,26 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="b">
         <v>1</v>
       </c>
     </row>
